--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Progs\git\kl_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB88B42E-B6C2-4375-97EE-E3AC8D298889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F78CB9A-462F-43C9-BE59-6841F86CF955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9E28195-B5B3-4303-86E3-79F783E79393}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>Хэши (при условии валидного токена)</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>CheckCorrectHashTokenSha256_0x</t>
+  </si>
+  <si>
+    <t>Корректный sha1 хэш файла с префиксом "0x" и корректный токен</t>
+  </si>
+  <si>
+    <t>Корректный sha256 хэш файла  с префиксом "0x" и корректный токен</t>
+  </si>
+  <si>
+    <t>Корректный md5 хэш файла с префиксом "0x" и корректный токен</t>
   </si>
 </sst>
 </file>
@@ -811,7 +820,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +902,7 @@
         <v>47</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>1</v>
@@ -905,12 +914,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="26" t="s">
@@ -925,7 +934,7 @@
         <v>49</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="28" t="s">

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Progs\git\kl_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F78CB9A-462F-43C9-BE59-6841F86CF955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A097A3-5072-45C7-B4BC-D1CB937FAAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9E28195-B5B3-4303-86E3-79F783E79393}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>Хэши (при условии валидного токена)</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Хэш от нулевого объекта</t>
   </si>
   <si>
-    <t>Хэш некоректного формата</t>
-  </si>
-  <si>
     <t>UnknownToken</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>Проверить, что по разным типам хэшей для одного и того же файла сервис выдает одинаковый результат</t>
   </si>
   <si>
-    <t>Проверить, что сервис на один и тот же запрос выдаст один и тот же ответ</t>
-  </si>
-  <si>
     <t>CheckCorrectHashTokenMd5</t>
   </si>
   <si>
@@ -184,6 +178,48 @@
   </si>
   <si>
     <t>Корректный md5 хэш файла с префиксом "0x" и корректный токен</t>
+  </si>
+  <si>
+    <t>Совпадают</t>
+  </si>
+  <si>
+    <t>Проверить идемпотентность запроса</t>
+  </si>
+  <si>
+    <t>EmptyFileHash</t>
+  </si>
+  <si>
+    <t>UnknownHash</t>
+  </si>
+  <si>
+    <t>Хэш некоректного формата (c добавлением литералов &gt; F)</t>
+  </si>
+  <si>
+    <t>EmptyStringHash</t>
+  </si>
+  <si>
+    <t>Хэш файла - пустая строка</t>
+  </si>
+  <si>
+    <t>Проверить, что при подаче в качестве хэша пустой строки, сервис выдаст ошибку некоррестного запроса</t>
+  </si>
+  <si>
+    <t>Проверить, что сервис корректно работает при коректном запросе с хэшем Md5 с префиксом 0x</t>
+  </si>
+  <si>
+    <t>Проверить, что сервис корректно работает при коректном запросе с хэшем Sha1  с префиксом 0x</t>
+  </si>
+  <si>
+    <t>Проверить, что сервис корректно работает при коректном запросе с хэшем Sha256  с префиксом 0x</t>
+  </si>
+  <si>
+    <t>ToLowerHash</t>
+  </si>
+  <si>
+    <t>LowerUpperHashEquals</t>
+  </si>
+  <si>
+    <t>EmptyStringToken</t>
   </si>
 </sst>
 </file>
@@ -817,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15964CD2-CD04-45D0-94F3-E9E1A7841099}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,96 +888,96 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -966,12 +1002,14 @@
       <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="E10" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -983,147 +1021,191 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="8" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5">
-        <v>400</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="5"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="5">
+        <v>400</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="E15" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="30"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C20" s="15">
         <v>401</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D20" s="4">
         <v>401</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E20" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="4">
+        <v>401</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="4">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="4">
         <v>401</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="4">
-        <v>401</v>
-      </c>
-      <c r="E19" s="8" t="s">
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="15">
+        <v>400</v>
+      </c>
+      <c r="D23" s="4">
+        <v>400</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="C25" s="16"/>
+      <c r="D25" s="14">
         <v>400</v>
       </c>
-      <c r="D20" s="4">
-        <v>400</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="E25" s="9" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="14">
-        <v>400</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C14:C18"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
     <mergeCell ref="C2:C4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Progs\git\kl_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A097A3-5072-45C7-B4BC-D1CB937FAAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4421D76D-E985-4046-88A9-D86E9FDA43A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9E28195-B5B3-4303-86E3-79F783E79393}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t>Хэши (при условии валидного токена)</t>
   </si>
@@ -220,6 +220,36 @@
   </si>
   <si>
     <t>EmptyStringToken</t>
+  </si>
+  <si>
+    <t>Хэш, где все литералы в нижнем регистре</t>
+  </si>
+  <si>
+    <t>Два запроса. Первый - все литералы у хэша в верхнем регисте, второй - в нижнем</t>
+  </si>
+  <si>
+    <t>Проверить, что сервис работает корректно при подаче хэша файла в нижнем регистре</t>
+  </si>
+  <si>
+    <t>Проверить, что сервис выдает одинаковый отклик на идентичные запросы в верхнем и нижнем регистрах</t>
+  </si>
+  <si>
+    <t>Проверить, что при подаче хэша недопустимой длины сервис выдаст ошибку некорректного запроса</t>
+  </si>
+  <si>
+    <t>Проверить, что при подаче хэша пустого файла сервис выдаст ошибку некорректного запроса</t>
+  </si>
+  <si>
+    <t>Проверить, что при подаче хэша файла, неизвестного сервису (.exe собранный на pet-проекте), выдается ошибка некорректного запроса</t>
+  </si>
+  <si>
+    <t>Проверить, что при подача хэша файла некорректного формата (hex формат допускает только 0-9, A-F, префик 0x) сервис выдает ошибку некорректного запроса</t>
+  </si>
+  <si>
+    <t>Токен - пустая строка</t>
+  </si>
+  <si>
+    <t>Проверить, что при подаче токена в виде пустой строки сервис выдаст ошибку некорректного запроса</t>
   </si>
 </sst>
 </file>
@@ -855,14 +885,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15964CD2-CD04-45D0-94F3-E9E1A7841099}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="41.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="50" style="1" customWidth="1"/>
@@ -996,7 +1026,7 @@
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1019,30 +1049,48 @@
       <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="E11" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1052,8 +1100,12 @@
       <c r="C14" s="5">
         <v>400</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="4">
+        <v>400</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1063,12 +1115,14 @@
         <v>57</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4">
+        <v>400</v>
+      </c>
       <c r="E15" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>53</v>
       </c>
@@ -1076,10 +1130,14 @@
         <v>25</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="4">
+        <v>400</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>54</v>
       </c>
@@ -1087,19 +1145,27 @@
         <v>24</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="4">
+        <v>400</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="4">
+        <v>400</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
@@ -1174,14 +1240,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="8"/>
+      <c r="D24" s="4">
+        <v>400</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Progs\git\kl_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4421D76D-E985-4046-88A9-D86E9FDA43A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D00AB93-4049-474C-8423-138C93ACF68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9E28195-B5B3-4303-86E3-79F783E79393}"/>
   </bookViews>
@@ -288,13 +288,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -477,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -567,6 +573,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -886,7 +895,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,8 +1257,8 @@
         <v>73</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="4">
-        <v>400</v>
+      <c r="D24" s="31">
+        <v>401</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>74</v>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Progs\git\kl_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D00AB93-4049-474C-8423-138C93ACF68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC05E609-22C8-450B-8BAC-757098B4EFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9E28195-B5B3-4303-86E3-79F783E79393}"/>
   </bookViews>
@@ -894,7 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15964CD2-CD04-45D0-94F3-E9E1A7841099}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
